--- a/original_data/2016/North West Crime Report 2016.xlsx
+++ b/original_data/2016/North West Crime Report 2016.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="720" windowWidth="11295" windowHeight="4920" tabRatio="779" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="360" yWindow="720" windowWidth="11295" windowHeight="4920" tabRatio="779" firstSheet="1" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Annual Data" sheetId="43" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2311" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2311" uniqueCount="153">
   <si>
     <t>LOCATION</t>
   </si>
@@ -472,6 +472,21 @@
   <si>
     <t>INCIDENTS - 25</t>
   </si>
+  <si>
+    <t>INCIDENTS - 14</t>
+  </si>
+  <si>
+    <t>INCIDENTS - 22</t>
+  </si>
+  <si>
+    <t>INCIDENTS - 37</t>
+  </si>
+  <si>
+    <t>INCIDENTS - 11</t>
+  </si>
+  <si>
+    <t>INCIDENTS - 29</t>
+  </si>
 </sst>
 </file>
 
@@ -665,7 +680,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -756,6 +771,27 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1011,25 +1047,25 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>54</c:v>
+                  <c:v>146</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>21</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1427,10 +1463,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="47" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="41"/>
+      <c r="B1" s="48"/>
       <c r="C1" s="24" t="s">
         <v>8</v>
       </c>
@@ -1462,7 +1498,7 @@
       </c>
       <c r="B2" s="26">
         <f>SUM(C2:J2)</f>
-        <v>90</v>
+        <v>239</v>
       </c>
       <c r="C2" s="24">
         <f>'Annual Totals'!C2</f>
@@ -1470,31 +1506,31 @@
       </c>
       <c r="D2" s="24">
         <f>'Annual Totals'!D2</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E2" s="24">
         <f>'Annual Totals'!E2</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F2" s="24">
         <f>'Annual Totals'!F2</f>
-        <v>54</v>
+        <v>146</v>
       </c>
       <c r="G2" s="24">
         <f>'Annual Totals'!G2</f>
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="H2" s="24">
         <f>'Annual Totals'!H2</f>
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="I2" s="24">
         <f>'Annual Totals'!I2</f>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="J2" s="33">
         <f>'Annual Totals'!J2</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1512,7 +1548,7 @@
   <dimension ref="A1:J94"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:J32"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1527,10 +1563,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="64" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="57"/>
+      <c r="B1" s="64"/>
       <c r="C1" s="32" t="s">
         <v>8</v>
       </c>
@@ -1557,29 +1593,29 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="56" t="s">
-        <v>130</v>
-      </c>
-      <c r="B2" s="56"/>
+      <c r="A2" s="63" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2" s="63"/>
       <c r="C2" s="31">
         <f>C94</f>
         <v>0</v>
       </c>
       <c r="D2" s="31">
         <f t="shared" ref="D2:J2" si="0">D94</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" s="31">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" s="31">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G2" s="31">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H2" s="31">
         <f t="shared" si="0"/>
@@ -1619,32 +1655,32 @@
       <c r="J4" s="9"/>
     </row>
     <row r="5" spans="1:10" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="B5" s="58"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="58"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="59"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="66"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="54" t="s">
         <v>135</v>
       </c>
-      <c r="B6" s="58"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="58"/>
-      <c r="I6" s="58"/>
-      <c r="J6" s="59"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="66"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
@@ -1787,8 +1823,8 @@
       <c r="D11" s="14">
         <v>0</v>
       </c>
-      <c r="E11" s="14">
-        <v>0</v>
+      <c r="E11" s="42">
+        <v>1</v>
       </c>
       <c r="F11" s="15">
         <v>0</v>
@@ -1886,8 +1922,8 @@
       <c r="E14" s="14">
         <v>0</v>
       </c>
-      <c r="F14" s="15">
-        <v>0</v>
+      <c r="F14" s="42">
+        <v>1</v>
       </c>
       <c r="G14" s="15">
         <v>0</v>
@@ -1944,8 +1980,8 @@
       <c r="C16" s="14">
         <v>0</v>
       </c>
-      <c r="D16" s="14">
-        <v>0</v>
+      <c r="D16" s="42">
+        <v>1</v>
       </c>
       <c r="E16" s="14">
         <v>0</v>
@@ -1985,8 +2021,8 @@
       <c r="F17" s="15">
         <v>0</v>
       </c>
-      <c r="G17" s="15">
-        <v>0</v>
+      <c r="G17" s="42">
+        <v>1</v>
       </c>
       <c r="H17" s="15">
         <v>0</v>
@@ -2302,8 +2338,8 @@
       <c r="E27" s="14">
         <v>0</v>
       </c>
-      <c r="F27" s="15">
-        <v>0</v>
+      <c r="F27" s="42">
+        <v>1</v>
       </c>
       <c r="G27" s="15">
         <v>0</v>
@@ -2401,8 +2437,8 @@
       <c r="F30" s="15">
         <v>0</v>
       </c>
-      <c r="G30" s="15">
-        <v>0</v>
+      <c r="G30" s="42">
+        <v>1</v>
       </c>
       <c r="H30" s="15">
         <v>0</v>
@@ -2479,18 +2515,18 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="54" t="s">
+      <c r="A33" s="61" t="s">
         <v>135</v>
       </c>
-      <c r="B33" s="55"/>
-      <c r="C33" s="55"/>
-      <c r="D33" s="55"/>
-      <c r="E33" s="55"/>
-      <c r="F33" s="55"/>
-      <c r="G33" s="55"/>
-      <c r="H33" s="55"/>
-      <c r="I33" s="55"/>
-      <c r="J33" s="55"/>
+      <c r="B33" s="62"/>
+      <c r="C33" s="62"/>
+      <c r="D33" s="62"/>
+      <c r="E33" s="62"/>
+      <c r="F33" s="62"/>
+      <c r="G33" s="62"/>
+      <c r="H33" s="62"/>
+      <c r="I33" s="62"/>
+      <c r="J33" s="62"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
@@ -2540,8 +2576,8 @@
       <c r="E35" s="14">
         <v>0</v>
       </c>
-      <c r="F35" s="14">
-        <v>0</v>
+      <c r="F35" s="42">
+        <v>1</v>
       </c>
       <c r="G35" s="14">
         <v>0</v>
@@ -2636,8 +2672,8 @@
       <c r="E38" s="14">
         <v>0</v>
       </c>
-      <c r="F38" s="14">
-        <v>0</v>
+      <c r="F38" s="42">
+        <v>1</v>
       </c>
       <c r="G38" s="14">
         <v>0</v>
@@ -3244,8 +3280,8 @@
       <c r="E57" s="14">
         <v>0</v>
       </c>
-      <c r="F57" s="14">
-        <v>0</v>
+      <c r="F57" s="42">
+        <v>1</v>
       </c>
       <c r="G57" s="14">
         <v>0</v>
@@ -3308,8 +3344,8 @@
       <c r="E59" s="14">
         <v>0</v>
       </c>
-      <c r="F59" s="14">
-        <v>0</v>
+      <c r="F59" s="42">
+        <v>1</v>
       </c>
       <c r="G59" s="14">
         <v>0</v>
@@ -3340,8 +3376,8 @@
       <c r="E60" s="14">
         <v>0</v>
       </c>
-      <c r="F60" s="14">
-        <v>0</v>
+      <c r="F60" s="42">
+        <v>5</v>
       </c>
       <c r="G60" s="14">
         <v>0</v>
@@ -3404,8 +3440,8 @@
       <c r="E62" s="14">
         <v>0</v>
       </c>
-      <c r="F62" s="14">
-        <v>0</v>
+      <c r="F62" s="42">
+        <v>1</v>
       </c>
       <c r="G62" s="14">
         <v>0</v>
@@ -3517,18 +3553,18 @@
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="54" t="s">
+      <c r="A66" s="61" t="s">
         <v>135</v>
       </c>
-      <c r="B66" s="55"/>
-      <c r="C66" s="55"/>
-      <c r="D66" s="55"/>
-      <c r="E66" s="55"/>
-      <c r="F66" s="55"/>
-      <c r="G66" s="55"/>
-      <c r="H66" s="55"/>
-      <c r="I66" s="55"/>
-      <c r="J66" s="55"/>
+      <c r="B66" s="62"/>
+      <c r="C66" s="62"/>
+      <c r="D66" s="62"/>
+      <c r="E66" s="62"/>
+      <c r="F66" s="62"/>
+      <c r="G66" s="62"/>
+      <c r="H66" s="62"/>
+      <c r="I66" s="62"/>
+      <c r="J66" s="62"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="s">
@@ -3738,8 +3774,8 @@
       <c r="E73" s="14">
         <v>0</v>
       </c>
-      <c r="F73" s="14">
-        <v>0</v>
+      <c r="F73" s="42">
+        <v>1</v>
       </c>
       <c r="G73" s="14">
         <v>0</v>
@@ -3965,8 +4001,8 @@
       <c r="F80" s="14">
         <v>0</v>
       </c>
-      <c r="G80" s="14">
-        <v>0</v>
+      <c r="G80" s="42">
+        <v>1</v>
       </c>
       <c r="H80" s="14">
         <v>0</v>
@@ -4363,8 +4399,8 @@
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" s="57"/>
-      <c r="B93" s="57"/>
+      <c r="A93" s="64"/>
+      <c r="B93" s="64"/>
       <c r="C93" s="32" t="s">
         <v>8</v>
       </c>
@@ -4396,7 +4432,7 @@
       </c>
       <c r="B94" s="30">
         <f>SUM(C94:J94)</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C94" s="31">
         <f>SUM(C8:C92)</f>
@@ -4404,19 +4440,19 @@
       </c>
       <c r="D94" s="31">
         <f t="shared" ref="D94:J94" si="1">SUM(D8:D92)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E94" s="31">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F94" s="31">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G94" s="31">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H94" s="31">
         <f t="shared" si="1"/>
@@ -4451,7 +4487,7 @@
   <dimension ref="A1:J94"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:J31"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4467,10 +4503,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="64" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="57"/>
+      <c r="B1" s="64"/>
       <c r="C1" s="32" t="s">
         <v>8</v>
       </c>
@@ -4497,10 +4533,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="56" t="s">
-        <v>130</v>
-      </c>
-      <c r="B2" s="56"/>
+      <c r="A2" s="63" t="s">
+        <v>149</v>
+      </c>
+      <c r="B2" s="63"/>
       <c r="C2" s="31">
         <f>C94</f>
         <v>0</v>
@@ -4511,23 +4547,23 @@
       </c>
       <c r="E2" s="31">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" s="31">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G2" s="31">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" s="31">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I2" s="31">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" s="31">
         <f t="shared" si="0"/>
@@ -4559,32 +4595,32 @@
       <c r="J4" s="9"/>
     </row>
     <row r="5" spans="1:10" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="B5" s="58"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="58"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="59"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="66"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="54" t="s">
         <v>134</v>
       </c>
-      <c r="B6" s="58"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="58"/>
-      <c r="I6" s="58"/>
-      <c r="J6" s="59"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="66"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
@@ -4826,14 +4862,14 @@
       <c r="E14" s="14">
         <v>0</v>
       </c>
-      <c r="F14" s="15">
-        <v>0</v>
+      <c r="F14" s="43">
+        <v>1</v>
       </c>
       <c r="G14" s="15">
         <v>0</v>
       </c>
-      <c r="H14" s="15">
-        <v>0</v>
+      <c r="H14" s="43">
+        <v>1</v>
       </c>
       <c r="I14" s="15">
         <v>0</v>
@@ -5419,18 +5455,18 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="54" t="s">
+      <c r="A33" s="61" t="s">
         <v>134</v>
       </c>
-      <c r="B33" s="55"/>
-      <c r="C33" s="55"/>
-      <c r="D33" s="55"/>
-      <c r="E33" s="55"/>
-      <c r="F33" s="55"/>
-      <c r="G33" s="55"/>
-      <c r="H33" s="55"/>
-      <c r="I33" s="55"/>
-      <c r="J33" s="55"/>
+      <c r="B33" s="62"/>
+      <c r="C33" s="62"/>
+      <c r="D33" s="62"/>
+      <c r="E33" s="62"/>
+      <c r="F33" s="62"/>
+      <c r="G33" s="62"/>
+      <c r="H33" s="62"/>
+      <c r="I33" s="62"/>
+      <c r="J33" s="62"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
@@ -5544,8 +5580,8 @@
       <c r="E37" s="14">
         <v>0</v>
       </c>
-      <c r="F37" s="14">
-        <v>0</v>
+      <c r="F37" s="43">
+        <v>1</v>
       </c>
       <c r="G37" s="14">
         <v>0</v>
@@ -5576,8 +5612,8 @@
       <c r="E38" s="14">
         <v>0</v>
       </c>
-      <c r="F38" s="14">
-        <v>0</v>
+      <c r="F38" s="43">
+        <v>1</v>
       </c>
       <c r="G38" s="14">
         <v>0</v>
@@ -5768,8 +5804,8 @@
       <c r="E44" s="14">
         <v>0</v>
       </c>
-      <c r="F44" s="14">
-        <v>0</v>
+      <c r="F44" s="43">
+        <v>1</v>
       </c>
       <c r="G44" s="14">
         <v>0</v>
@@ -5966,8 +6002,8 @@
       <c r="G50" s="14">
         <v>0</v>
       </c>
-      <c r="H50" s="14">
-        <v>0</v>
+      <c r="H50" s="43">
+        <v>1</v>
       </c>
       <c r="I50" s="14">
         <v>0</v>
@@ -5992,8 +6028,8 @@
       <c r="E51" s="14">
         <v>0</v>
       </c>
-      <c r="F51" s="14">
-        <v>0</v>
+      <c r="F51" s="43">
+        <v>1</v>
       </c>
       <c r="G51" s="14">
         <v>0</v>
@@ -6152,8 +6188,8 @@
       <c r="E56" s="14">
         <v>0</v>
       </c>
-      <c r="F56" s="14">
-        <v>0</v>
+      <c r="F56" s="43">
+        <v>2</v>
       </c>
       <c r="G56" s="14">
         <v>0</v>
@@ -6181,8 +6217,8 @@
       <c r="D57" s="14">
         <v>0</v>
       </c>
-      <c r="E57" s="14">
-        <v>0</v>
+      <c r="E57" s="43">
+        <v>1</v>
       </c>
       <c r="F57" s="14">
         <v>0</v>
@@ -6190,8 +6226,8 @@
       <c r="G57" s="14">
         <v>0</v>
       </c>
-      <c r="H57" s="14">
-        <v>0</v>
+      <c r="H57" s="43">
+        <v>1</v>
       </c>
       <c r="I57" s="14">
         <v>0</v>
@@ -6281,7 +6317,7 @@
         <v>0</v>
       </c>
       <c r="F60" s="14">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G60" s="14">
         <v>0</v>
@@ -6408,8 +6444,8 @@
       <c r="E64" s="14">
         <v>0</v>
       </c>
-      <c r="F64" s="14">
-        <v>0</v>
+      <c r="F64" s="43">
+        <v>1</v>
       </c>
       <c r="G64" s="14">
         <v>0</v>
@@ -6457,18 +6493,18 @@
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="54" t="s">
+      <c r="A66" s="61" t="s">
         <v>134</v>
       </c>
-      <c r="B66" s="55"/>
-      <c r="C66" s="55"/>
-      <c r="D66" s="55"/>
-      <c r="E66" s="55"/>
-      <c r="F66" s="55"/>
-      <c r="G66" s="55"/>
-      <c r="H66" s="55"/>
-      <c r="I66" s="55"/>
-      <c r="J66" s="55"/>
+      <c r="B66" s="62"/>
+      <c r="C66" s="62"/>
+      <c r="D66" s="62"/>
+      <c r="E66" s="62"/>
+      <c r="F66" s="62"/>
+      <c r="G66" s="62"/>
+      <c r="H66" s="62"/>
+      <c r="I66" s="62"/>
+      <c r="J66" s="62"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="s">
@@ -6678,8 +6714,8 @@
       <c r="E73" s="14">
         <v>0</v>
       </c>
-      <c r="F73" s="14">
-        <v>0</v>
+      <c r="F73" s="43">
+        <v>1</v>
       </c>
       <c r="G73" s="14">
         <v>0</v>
@@ -6783,8 +6819,8 @@
       <c r="H76" s="14">
         <v>0</v>
       </c>
-      <c r="I76" s="14">
-        <v>0</v>
+      <c r="I76" s="43">
+        <v>1</v>
       </c>
       <c r="J76" s="14">
         <v>0</v>
@@ -6876,8 +6912,8 @@
       <c r="G79" s="14">
         <v>0</v>
       </c>
-      <c r="H79" s="14">
-        <v>0</v>
+      <c r="H79" s="43">
+        <v>1</v>
       </c>
       <c r="I79" s="14">
         <v>0</v>
@@ -6937,8 +6973,8 @@
       <c r="F81" s="14">
         <v>0</v>
       </c>
-      <c r="G81" s="14">
-        <v>0</v>
+      <c r="G81" s="43">
+        <v>1</v>
       </c>
       <c r="H81" s="14">
         <v>0</v>
@@ -7062,8 +7098,8 @@
       <c r="E85" s="14">
         <v>0</v>
       </c>
-      <c r="F85" s="14">
-        <v>0</v>
+      <c r="F85" s="43">
+        <v>1</v>
       </c>
       <c r="G85" s="14">
         <v>0</v>
@@ -7303,8 +7339,8 @@
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" s="57"/>
-      <c r="B93" s="57"/>
+      <c r="A93" s="64"/>
+      <c r="B93" s="64"/>
       <c r="C93" s="32" t="s">
         <v>8</v>
       </c>
@@ -7336,7 +7372,7 @@
       </c>
       <c r="B94" s="30">
         <f>SUM(C94:J94)</f>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C94" s="31">
         <f>SUM(C8:C92)</f>
@@ -7348,23 +7384,23 @@
       </c>
       <c r="E94" s="31">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F94" s="31">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G94" s="31">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H94" s="31">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I94" s="31">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94" s="31">
         <f t="shared" si="1"/>
@@ -7391,7 +7427,7 @@
   <dimension ref="A1:J94"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C72" sqref="C72:J89"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7407,10 +7443,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="64" t="s">
         <v>127</v>
       </c>
-      <c r="B1" s="57"/>
+      <c r="B1" s="64"/>
       <c r="C1" s="32" t="s">
         <v>8</v>
       </c>
@@ -7437,10 +7473,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="56" t="s">
-        <v>130</v>
-      </c>
-      <c r="B2" s="56"/>
+      <c r="A2" s="63" t="s">
+        <v>150</v>
+      </c>
+      <c r="B2" s="63"/>
       <c r="C2" s="31">
         <f>C94</f>
         <v>0</v>
@@ -7451,23 +7487,23 @@
       </c>
       <c r="E2" s="31">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F2" s="31">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="G2" s="31">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H2" s="31">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I2" s="31">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" s="31">
         <f t="shared" si="0"/>
@@ -7499,32 +7535,32 @@
       <c r="J4" s="9"/>
     </row>
     <row r="5" spans="1:10" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="B5" s="58"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="58"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="59"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="66"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="54" t="s">
         <v>133</v>
       </c>
-      <c r="B6" s="58"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="58"/>
-      <c r="I6" s="58"/>
-      <c r="J6" s="59"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="66"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
@@ -7638,8 +7674,8 @@
       <c r="E10" s="14">
         <v>0</v>
       </c>
-      <c r="F10" s="15">
-        <v>0</v>
+      <c r="F10" s="44">
+        <v>1</v>
       </c>
       <c r="G10" s="15">
         <v>0</v>
@@ -7673,8 +7709,8 @@
       <c r="F11" s="15">
         <v>0</v>
       </c>
-      <c r="G11" s="15">
-        <v>0</v>
+      <c r="G11" s="44">
+        <v>1</v>
       </c>
       <c r="H11" s="15">
         <v>0</v>
@@ -7766,14 +7802,14 @@
       <c r="E14" s="14">
         <v>0</v>
       </c>
-      <c r="F14" s="15">
-        <v>0</v>
+      <c r="F14" s="44">
+        <v>2</v>
       </c>
       <c r="G14" s="15">
         <v>0</v>
       </c>
-      <c r="H14" s="15">
-        <v>0</v>
+      <c r="H14" s="44">
+        <v>1</v>
       </c>
       <c r="I14" s="14">
         <v>0</v>
@@ -7862,8 +7898,8 @@
       <c r="E17" s="14">
         <v>0</v>
       </c>
-      <c r="F17" s="15">
-        <v>0</v>
+      <c r="F17" s="44">
+        <v>1</v>
       </c>
       <c r="G17" s="15">
         <v>0</v>
@@ -7955,11 +7991,11 @@
       <c r="D20" s="14">
         <v>0</v>
       </c>
-      <c r="E20" s="14">
-        <v>0</v>
-      </c>
-      <c r="F20" s="15">
-        <v>0</v>
+      <c r="E20" s="44">
+        <v>1</v>
+      </c>
+      <c r="F20" s="44">
+        <v>2</v>
       </c>
       <c r="G20" s="15">
         <v>0</v>
@@ -7990,8 +8026,8 @@
       <c r="E21" s="14">
         <v>0</v>
       </c>
-      <c r="F21" s="15">
-        <v>0</v>
+      <c r="F21" s="44">
+        <v>1</v>
       </c>
       <c r="G21" s="15">
         <v>0</v>
@@ -8022,8 +8058,8 @@
       <c r="E22" s="14">
         <v>0</v>
       </c>
-      <c r="F22" s="15">
-        <v>0</v>
+      <c r="F22" s="44">
+        <v>1</v>
       </c>
       <c r="G22" s="15">
         <v>0</v>
@@ -8185,8 +8221,8 @@
       <c r="F27" s="15">
         <v>0</v>
       </c>
-      <c r="G27" s="15">
-        <v>0</v>
+      <c r="G27" s="44">
+        <v>1</v>
       </c>
       <c r="H27" s="15">
         <v>0</v>
@@ -8281,8 +8317,8 @@
       <c r="F30" s="15">
         <v>0</v>
       </c>
-      <c r="G30" s="15">
-        <v>0</v>
+      <c r="G30" s="44">
+        <v>1</v>
       </c>
       <c r="H30" s="15">
         <v>0</v>
@@ -8359,18 +8395,18 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="54" t="s">
+      <c r="A33" s="61" t="s">
         <v>133</v>
       </c>
-      <c r="B33" s="55"/>
-      <c r="C33" s="55"/>
-      <c r="D33" s="55"/>
-      <c r="E33" s="55"/>
-      <c r="F33" s="55"/>
-      <c r="G33" s="55"/>
-      <c r="H33" s="55"/>
-      <c r="I33" s="55"/>
-      <c r="J33" s="55"/>
+      <c r="B33" s="62"/>
+      <c r="C33" s="62"/>
+      <c r="D33" s="62"/>
+      <c r="E33" s="62"/>
+      <c r="F33" s="62"/>
+      <c r="G33" s="62"/>
+      <c r="H33" s="62"/>
+      <c r="I33" s="62"/>
+      <c r="J33" s="62"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
@@ -8516,8 +8552,8 @@
       <c r="E38" s="14">
         <v>0</v>
       </c>
-      <c r="F38" s="14">
-        <v>0</v>
+      <c r="F38" s="44">
+        <v>1</v>
       </c>
       <c r="G38" s="14">
         <v>0</v>
@@ -8612,8 +8648,8 @@
       <c r="E41" s="14">
         <v>0</v>
       </c>
-      <c r="F41" s="14">
-        <v>0</v>
+      <c r="F41" s="44">
+        <v>1</v>
       </c>
       <c r="G41" s="14">
         <v>0</v>
@@ -8839,14 +8875,14 @@
       <c r="F48" s="14">
         <v>0</v>
       </c>
-      <c r="G48" s="14">
-        <v>0</v>
+      <c r="G48" s="44">
+        <v>1</v>
       </c>
       <c r="H48" s="14">
         <v>0</v>
       </c>
-      <c r="I48" s="14">
-        <v>0</v>
+      <c r="I48" s="44">
+        <v>1</v>
       </c>
       <c r="J48" s="14">
         <v>0</v>
@@ -8897,14 +8933,14 @@
       <c r="D50" s="14">
         <v>0</v>
       </c>
-      <c r="E50" s="14">
-        <v>0</v>
+      <c r="E50" s="44">
+        <v>1</v>
       </c>
       <c r="F50" s="14">
         <v>0</v>
       </c>
-      <c r="G50" s="14">
-        <v>0</v>
+      <c r="G50" s="44">
+        <v>1</v>
       </c>
       <c r="H50" s="14">
         <v>0</v>
@@ -8993,8 +9029,8 @@
       <c r="D53" s="14">
         <v>0</v>
       </c>
-      <c r="E53" s="14">
-        <v>0</v>
+      <c r="E53" s="44">
+        <v>1</v>
       </c>
       <c r="F53" s="14">
         <v>0</v>
@@ -9060,8 +9096,8 @@
       <c r="E55" s="14">
         <v>0</v>
       </c>
-      <c r="F55" s="14">
-        <v>0</v>
+      <c r="F55" s="44">
+        <v>1</v>
       </c>
       <c r="G55" s="14">
         <v>0</v>
@@ -9124,14 +9160,14 @@
       <c r="E57" s="14">
         <v>0</v>
       </c>
-      <c r="F57" s="14">
-        <v>0</v>
+      <c r="F57" s="44">
+        <v>2</v>
       </c>
       <c r="G57" s="14">
         <v>0</v>
       </c>
-      <c r="H57" s="14">
-        <v>0</v>
+      <c r="H57" s="44">
+        <v>1</v>
       </c>
       <c r="I57" s="14">
         <v>0</v>
@@ -9191,8 +9227,8 @@
       <c r="F59" s="14">
         <v>0</v>
       </c>
-      <c r="G59" s="14">
-        <v>0</v>
+      <c r="G59" s="44">
+        <v>1</v>
       </c>
       <c r="H59" s="14">
         <v>0</v>
@@ -9217,17 +9253,17 @@
       <c r="D60" s="14">
         <v>0</v>
       </c>
-      <c r="E60" s="14">
-        <v>0</v>
-      </c>
-      <c r="F60" s="14">
-        <v>0</v>
+      <c r="E60" s="44">
+        <v>1</v>
+      </c>
+      <c r="F60" s="44">
+        <v>5</v>
       </c>
       <c r="G60" s="14">
         <v>0</v>
       </c>
-      <c r="H60" s="14">
-        <v>0</v>
+      <c r="H60" s="44">
+        <v>3</v>
       </c>
       <c r="I60" s="14">
         <v>0</v>
@@ -9284,8 +9320,8 @@
       <c r="E62" s="14">
         <v>0</v>
       </c>
-      <c r="F62" s="14">
-        <v>0</v>
+      <c r="F62" s="44">
+        <v>2</v>
       </c>
       <c r="G62" s="14">
         <v>0</v>
@@ -9380,8 +9416,8 @@
       <c r="E65" s="14">
         <v>0</v>
       </c>
-      <c r="F65" s="15">
-        <v>0</v>
+      <c r="F65" s="44">
+        <v>1</v>
       </c>
       <c r="G65" s="14">
         <v>0</v>
@@ -9397,18 +9433,18 @@
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="54" t="s">
+      <c r="A66" s="61" t="s">
         <v>133</v>
       </c>
-      <c r="B66" s="55"/>
-      <c r="C66" s="55"/>
-      <c r="D66" s="55"/>
-      <c r="E66" s="55"/>
-      <c r="F66" s="55"/>
-      <c r="G66" s="55"/>
-      <c r="H66" s="55"/>
-      <c r="I66" s="55"/>
-      <c r="J66" s="55"/>
+      <c r="B66" s="62"/>
+      <c r="C66" s="62"/>
+      <c r="D66" s="62"/>
+      <c r="E66" s="62"/>
+      <c r="F66" s="62"/>
+      <c r="G66" s="62"/>
+      <c r="H66" s="62"/>
+      <c r="I66" s="62"/>
+      <c r="J66" s="62"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="s">
@@ -10243,8 +10279,8 @@
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" s="57"/>
-      <c r="B93" s="57"/>
+      <c r="A93" s="64"/>
+      <c r="B93" s="64"/>
       <c r="C93" s="32" t="s">
         <v>8</v>
       </c>
@@ -10276,7 +10312,7 @@
       </c>
       <c r="B94" s="30">
         <f>SUM(C94:J94)</f>
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="C94" s="31">
         <f>SUM(C8:C92)</f>
@@ -10288,23 +10324,23 @@
       </c>
       <c r="E94" s="31">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F94" s="31">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="G94" s="31">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H94" s="31">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I94" s="31">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94" s="31">
         <f t="shared" si="1"/>
@@ -10331,7 +10367,7 @@
   <dimension ref="A1:J94"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D71" sqref="D71:J89"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -10347,10 +10383,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="64" t="s">
         <v>128</v>
       </c>
-      <c r="B1" s="57"/>
+      <c r="B1" s="64"/>
       <c r="C1" s="32" t="s">
         <v>8</v>
       </c>
@@ -10377,10 +10413,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="56" t="s">
-        <v>130</v>
-      </c>
-      <c r="B2" s="56"/>
+      <c r="A2" s="63" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2" s="63"/>
       <c r="C2" s="31">
         <f>C94</f>
         <v>0</v>
@@ -10391,27 +10427,27 @@
       </c>
       <c r="E2" s="31">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F2" s="31">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G2" s="31">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" s="31">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" s="31">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" s="31">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -10439,32 +10475,32 @@
       <c r="J4" s="9"/>
     </row>
     <row r="5" spans="1:10" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="B5" s="58"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="58"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="59"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="66"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="54" t="s">
         <v>132</v>
       </c>
-      <c r="B6" s="58"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="58"/>
-      <c r="I6" s="58"/>
-      <c r="J6" s="59"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="66"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
@@ -10706,8 +10742,8 @@
       <c r="E14" s="14">
         <v>0</v>
       </c>
-      <c r="F14" s="15">
-        <v>0</v>
+      <c r="F14" s="45">
+        <v>1</v>
       </c>
       <c r="G14" s="15">
         <v>0</v>
@@ -11215,8 +11251,8 @@
       <c r="D30" s="14">
         <v>0</v>
       </c>
-      <c r="E30" s="14">
-        <v>0</v>
+      <c r="E30" s="45">
+        <v>1</v>
       </c>
       <c r="F30" s="15">
         <v>0</v>
@@ -11230,8 +11266,8 @@
       <c r="I30" s="14">
         <v>0</v>
       </c>
-      <c r="J30" s="14">
-        <v>0</v>
+      <c r="J30" s="45">
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -11299,18 +11335,18 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="54" t="s">
+      <c r="A33" s="61" t="s">
         <v>132</v>
       </c>
-      <c r="B33" s="55"/>
-      <c r="C33" s="55"/>
-      <c r="D33" s="55"/>
-      <c r="E33" s="55"/>
-      <c r="F33" s="55"/>
-      <c r="G33" s="55"/>
-      <c r="H33" s="55"/>
-      <c r="I33" s="55"/>
-      <c r="J33" s="55"/>
+      <c r="B33" s="62"/>
+      <c r="C33" s="62"/>
+      <c r="D33" s="62"/>
+      <c r="E33" s="62"/>
+      <c r="F33" s="62"/>
+      <c r="G33" s="62"/>
+      <c r="H33" s="62"/>
+      <c r="I33" s="62"/>
+      <c r="J33" s="62"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
@@ -11424,8 +11460,8 @@
       <c r="E37" s="14">
         <v>0</v>
       </c>
-      <c r="F37" s="14">
-        <v>0</v>
+      <c r="F37" s="45">
+        <v>1</v>
       </c>
       <c r="G37" s="14">
         <v>0</v>
@@ -11779,8 +11815,8 @@
       <c r="F48" s="14">
         <v>0</v>
       </c>
-      <c r="G48" s="14">
-        <v>0</v>
+      <c r="G48" s="45">
+        <v>1</v>
       </c>
       <c r="H48" s="14">
         <v>0</v>
@@ -11904,8 +11940,8 @@
       <c r="E52" s="14">
         <v>0</v>
       </c>
-      <c r="F52" s="14">
-        <v>0</v>
+      <c r="F52" s="45">
+        <v>1</v>
       </c>
       <c r="G52" s="14">
         <v>0</v>
@@ -12160,17 +12196,17 @@
       <c r="E60" s="14">
         <v>0</v>
       </c>
-      <c r="F60" s="14">
-        <v>0</v>
+      <c r="F60" s="45">
+        <v>2</v>
       </c>
       <c r="G60" s="14">
         <v>0</v>
       </c>
-      <c r="H60" s="14">
-        <v>0</v>
-      </c>
-      <c r="I60" s="14">
-        <v>0</v>
+      <c r="H60" s="45">
+        <v>1</v>
+      </c>
+      <c r="I60" s="45">
+        <v>1</v>
       </c>
       <c r="J60" s="14">
         <v>0</v>
@@ -12337,18 +12373,18 @@
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="54" t="s">
+      <c r="A66" s="61" t="s">
         <v>132</v>
       </c>
-      <c r="B66" s="55"/>
-      <c r="C66" s="55"/>
-      <c r="D66" s="55"/>
-      <c r="E66" s="55"/>
-      <c r="F66" s="55"/>
-      <c r="G66" s="55"/>
-      <c r="H66" s="55"/>
-      <c r="I66" s="55"/>
-      <c r="J66" s="55"/>
+      <c r="B66" s="62"/>
+      <c r="C66" s="62"/>
+      <c r="D66" s="62"/>
+      <c r="E66" s="62"/>
+      <c r="F66" s="62"/>
+      <c r="G66" s="62"/>
+      <c r="H66" s="62"/>
+      <c r="I66" s="62"/>
+      <c r="J66" s="62"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="s">
@@ -12587,8 +12623,8 @@
       <c r="D74" s="14">
         <v>0</v>
       </c>
-      <c r="E74" s="14">
-        <v>0</v>
+      <c r="E74" s="45">
+        <v>1</v>
       </c>
       <c r="F74" s="14">
         <v>0</v>
@@ -13183,8 +13219,8 @@
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" s="57"/>
-      <c r="B93" s="57"/>
+      <c r="A93" s="64"/>
+      <c r="B93" s="64"/>
       <c r="C93" s="32" t="s">
         <v>8</v>
       </c>
@@ -13216,7 +13252,7 @@
       </c>
       <c r="B94" s="30">
         <f>SUM(C94:J94)</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C94" s="31">
         <f>SUM(C8:C92)</f>
@@ -13228,27 +13264,27 @@
       </c>
       <c r="E94" s="31">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F94" s="31">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G94" s="31">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H94" s="31">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I94" s="31">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94" s="31">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -13270,8 +13306,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J94"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A66" sqref="A66:J66"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -13287,10 +13323,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="64" t="s">
         <v>129</v>
       </c>
-      <c r="B1" s="57"/>
+      <c r="B1" s="64"/>
       <c r="C1" s="32" t="s">
         <v>8</v>
       </c>
@@ -13317,41 +13353,41 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="56" t="s">
-        <v>130</v>
-      </c>
-      <c r="B2" s="56"/>
+      <c r="A2" s="63" t="s">
+        <v>152</v>
+      </c>
+      <c r="B2" s="63"/>
       <c r="C2" s="31">
         <f>C94</f>
         <v>0</v>
       </c>
       <c r="D2" s="31">
         <f t="shared" ref="D2:J2" si="0">D94</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" s="31">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" s="31">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G2" s="31">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" s="31">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I2" s="31">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J2" s="31">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -13379,32 +13415,32 @@
       <c r="J4" s="9"/>
     </row>
     <row r="5" spans="1:10" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="B5" s="58"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="58"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="59"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="66"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="54" t="s">
         <v>131</v>
       </c>
-      <c r="B6" s="58"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="58"/>
-      <c r="I6" s="58"/>
-      <c r="J6" s="59"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="66"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
@@ -13454,8 +13490,8 @@
       <c r="E8" s="14">
         <v>0</v>
       </c>
-      <c r="F8" s="15">
-        <v>0</v>
+      <c r="F8" s="46">
+        <v>1</v>
       </c>
       <c r="G8" s="15">
         <v>0</v>
@@ -13544,8 +13580,8 @@
       <c r="C11" s="14">
         <v>0</v>
       </c>
-      <c r="D11" s="14">
-        <v>0</v>
+      <c r="D11" s="46">
+        <v>1</v>
       </c>
       <c r="E11" s="14">
         <v>0</v>
@@ -13556,8 +13592,8 @@
       <c r="G11" s="15">
         <v>0</v>
       </c>
-      <c r="H11" s="15">
-        <v>0</v>
+      <c r="H11" s="46">
+        <v>1</v>
       </c>
       <c r="I11" s="14">
         <v>0</v>
@@ -13710,8 +13746,8 @@
       <c r="E16" s="14">
         <v>0</v>
       </c>
-      <c r="F16" s="15">
-        <v>0</v>
+      <c r="F16" s="46">
+        <v>1</v>
       </c>
       <c r="G16" s="15">
         <v>0</v>
@@ -13780,8 +13816,8 @@
       <c r="G18" s="15">
         <v>0</v>
       </c>
-      <c r="H18" s="15">
-        <v>0</v>
+      <c r="H18" s="46">
+        <v>1</v>
       </c>
       <c r="I18" s="14">
         <v>0</v>
@@ -13838,8 +13874,8 @@
       <c r="E20" s="14">
         <v>0</v>
       </c>
-      <c r="F20" s="15">
-        <v>0</v>
+      <c r="F20" s="46">
+        <v>1</v>
       </c>
       <c r="G20" s="15">
         <v>0</v>
@@ -13902,11 +13938,11 @@
       <c r="E22" s="14">
         <v>0</v>
       </c>
-      <c r="F22" s="15">
-        <v>0</v>
-      </c>
-      <c r="G22" s="15">
-        <v>0</v>
+      <c r="F22" s="46">
+        <v>2</v>
+      </c>
+      <c r="G22" s="46">
+        <v>1</v>
       </c>
       <c r="H22" s="15">
         <v>0</v>
@@ -14222,35 +14258,35 @@
       <c r="E32" s="14">
         <v>0</v>
       </c>
-      <c r="F32" s="15">
-        <v>0</v>
+      <c r="F32" s="46">
+        <v>1</v>
       </c>
       <c r="G32" s="15">
         <v>0</v>
       </c>
-      <c r="H32" s="15">
-        <v>0</v>
-      </c>
-      <c r="I32" s="14">
-        <v>0</v>
+      <c r="H32" s="46">
+        <v>1</v>
+      </c>
+      <c r="I32" s="46">
+        <v>1</v>
       </c>
       <c r="J32" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="54" t="s">
+      <c r="A33" s="61" t="s">
         <v>131</v>
       </c>
-      <c r="B33" s="55"/>
-      <c r="C33" s="55"/>
-      <c r="D33" s="55"/>
-      <c r="E33" s="55"/>
-      <c r="F33" s="55"/>
-      <c r="G33" s="55"/>
-      <c r="H33" s="55"/>
-      <c r="I33" s="55"/>
-      <c r="J33" s="55"/>
+      <c r="B33" s="62"/>
+      <c r="C33" s="62"/>
+      <c r="D33" s="62"/>
+      <c r="E33" s="62"/>
+      <c r="F33" s="62"/>
+      <c r="G33" s="62"/>
+      <c r="H33" s="62"/>
+      <c r="I33" s="62"/>
+      <c r="J33" s="62"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
@@ -14361,11 +14397,11 @@
       <c r="D37" s="14">
         <v>0</v>
       </c>
-      <c r="E37" s="14">
-        <v>0</v>
-      </c>
-      <c r="F37" s="14">
-        <v>0</v>
+      <c r="E37" s="46">
+        <v>1</v>
+      </c>
+      <c r="F37" s="46">
+        <v>1</v>
       </c>
       <c r="G37" s="14">
         <v>0</v>
@@ -14780,8 +14816,8 @@
       <c r="E50" s="14">
         <v>0</v>
       </c>
-      <c r="F50" s="14">
-        <v>0</v>
+      <c r="F50" s="46">
+        <v>1</v>
       </c>
       <c r="G50" s="14">
         <v>0</v>
@@ -14844,8 +14880,8 @@
       <c r="E52" s="14">
         <v>0</v>
       </c>
-      <c r="F52" s="14">
-        <v>0</v>
+      <c r="F52" s="46">
+        <v>1</v>
       </c>
       <c r="G52" s="14">
         <v>0</v>
@@ -14885,11 +14921,11 @@
       <c r="H53" s="14">
         <v>0</v>
       </c>
-      <c r="I53" s="14">
-        <v>0</v>
-      </c>
-      <c r="J53" s="14">
-        <v>0</v>
+      <c r="I53" s="46">
+        <v>1</v>
+      </c>
+      <c r="J53" s="46">
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
@@ -14972,8 +15008,8 @@
       <c r="E56" s="14">
         <v>0</v>
       </c>
-      <c r="F56" s="14">
-        <v>0</v>
+      <c r="F56" s="46">
+        <v>1</v>
       </c>
       <c r="G56" s="14">
         <v>0</v>
@@ -15036,8 +15072,8 @@
       <c r="E58" s="14">
         <v>0</v>
       </c>
-      <c r="F58" s="14">
-        <v>0</v>
+      <c r="F58" s="46">
+        <v>1</v>
       </c>
       <c r="G58" s="14">
         <v>0</v>
@@ -15068,8 +15104,8 @@
       <c r="E59" s="14">
         <v>0</v>
       </c>
-      <c r="F59" s="14">
-        <v>0</v>
+      <c r="F59" s="46">
+        <v>1</v>
       </c>
       <c r="G59" s="14">
         <v>0</v>
@@ -15100,8 +15136,8 @@
       <c r="E60" s="14">
         <v>0</v>
       </c>
-      <c r="F60" s="14">
-        <v>0</v>
+      <c r="F60" s="46">
+        <v>5</v>
       </c>
       <c r="G60" s="14">
         <v>0</v>
@@ -15109,8 +15145,8 @@
       <c r="H60" s="14">
         <v>0</v>
       </c>
-      <c r="I60" s="14">
-        <v>0</v>
+      <c r="I60" s="46">
+        <v>1</v>
       </c>
       <c r="J60" s="14">
         <v>0</v>
@@ -15164,8 +15200,8 @@
       <c r="E62" s="14">
         <v>0</v>
       </c>
-      <c r="F62" s="14">
-        <v>0</v>
+      <c r="F62" s="46">
+        <v>1</v>
       </c>
       <c r="G62" s="14">
         <v>0</v>
@@ -15277,18 +15313,18 @@
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="54" t="s">
+      <c r="A66" s="61" t="s">
         <v>131</v>
       </c>
-      <c r="B66" s="55"/>
-      <c r="C66" s="55"/>
-      <c r="D66" s="55"/>
-      <c r="E66" s="55"/>
-      <c r="F66" s="55"/>
-      <c r="G66" s="55"/>
-      <c r="H66" s="55"/>
-      <c r="I66" s="55"/>
-      <c r="J66" s="55"/>
+      <c r="B66" s="62"/>
+      <c r="C66" s="62"/>
+      <c r="D66" s="62"/>
+      <c r="E66" s="62"/>
+      <c r="F66" s="62"/>
+      <c r="G66" s="62"/>
+      <c r="H66" s="62"/>
+      <c r="I66" s="62"/>
+      <c r="J66" s="62"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="s">
@@ -15987,8 +16023,8 @@
       <c r="H88" s="15">
         <v>0</v>
       </c>
-      <c r="I88" s="15">
-        <v>0</v>
+      <c r="I88" s="46">
+        <v>1</v>
       </c>
       <c r="J88" s="15">
         <v>0</v>
@@ -16123,8 +16159,8 @@
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" s="57"/>
-      <c r="B93" s="57"/>
+      <c r="A93" s="64"/>
+      <c r="B93" s="64"/>
       <c r="C93" s="32" t="s">
         <v>8</v>
       </c>
@@ -16156,7 +16192,7 @@
       </c>
       <c r="B94" s="30">
         <f>SUM(C94:J94)</f>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="C94" s="31">
         <f>SUM(C8:C92)</f>
@@ -16164,31 +16200,31 @@
       </c>
       <c r="D94" s="31">
         <f t="shared" ref="D94:J94" si="1">SUM(D8:D92)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E94" s="31">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F94" s="31">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G94" s="31">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H94" s="31">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I94" s="31">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J94" s="31">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -16226,10 +16262,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="49" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="43"/>
+      <c r="B1" s="50"/>
       <c r="C1" s="28" t="s">
         <v>8</v>
       </c>
@@ -16256,41 +16292,41 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="57" t="s">
         <v>130</v>
       </c>
-      <c r="B2" s="51"/>
+      <c r="B2" s="58"/>
       <c r="C2" s="27">
         <f>C94</f>
         <v>0</v>
       </c>
       <c r="D2" s="27">
         <f t="shared" ref="D2:J2" si="0">D94</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E2" s="27">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F2" s="27">
         <f t="shared" si="0"/>
-        <v>54</v>
+        <v>146</v>
       </c>
       <c r="G2" s="27">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="H2" s="27">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="I2" s="27">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="J2" s="27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -16318,32 +16354,32 @@
       <c r="J4" s="9"/>
     </row>
     <row r="5" spans="1:10" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="46"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="53"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="54" t="s">
         <v>143</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="49"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="56"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
@@ -16398,7 +16434,7 @@
       </c>
       <c r="F8" s="14">
         <f>SUM(January:December!F8)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="14">
         <f>SUM(January:December!G8)</f>
@@ -16478,7 +16514,7 @@
       </c>
       <c r="F10" s="14">
         <f>SUM(January:December!F10)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" s="14">
         <f>SUM(January:December!G10)</f>
@@ -16510,23 +16546,23 @@
       </c>
       <c r="D11" s="14">
         <f>SUM(January:December!D11)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" s="14">
         <f>SUM(January:December!E11)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" s="14">
         <f>SUM(January:December!F11)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G11" s="14">
         <f>SUM(January:December!G11)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" s="14">
         <f>SUM(January:December!H11)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" s="14">
         <f>SUM(January:December!I11)</f>
@@ -16638,7 +16674,7 @@
       </c>
       <c r="F14" s="14">
         <f>SUM(January:December!F14)</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G14" s="14">
         <f>SUM(January:December!G14)</f>
@@ -16646,7 +16682,7 @@
       </c>
       <c r="H14" s="14">
         <f>SUM(January:December!H14)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I14" s="14">
         <f>SUM(January:December!I14)</f>
@@ -16710,7 +16746,7 @@
       </c>
       <c r="D16" s="14">
         <f>SUM(January:December!D16)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" s="14">
         <f>SUM(January:December!E16)</f>
@@ -16718,7 +16754,7 @@
       </c>
       <c r="F16" s="14">
         <f>SUM(January:December!F16)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" s="14">
         <f>SUM(January:December!G16)</f>
@@ -16758,11 +16794,11 @@
       </c>
       <c r="F17" s="14">
         <f>SUM(January:December!F17)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" s="14">
         <f>SUM(January:December!G17)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" s="14">
         <f>SUM(January:December!H17)</f>
@@ -16806,7 +16842,7 @@
       </c>
       <c r="H18" s="14">
         <f>SUM(January:December!H18)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I18" s="14">
         <f>SUM(January:December!I18)</f>
@@ -16874,11 +16910,11 @@
       </c>
       <c r="E20" s="14">
         <f>SUM(January:December!E20)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" s="14">
         <f>SUM(January:December!F20)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G20" s="14">
         <f>SUM(January:December!G20)</f>
@@ -16918,7 +16954,7 @@
       </c>
       <c r="F21" s="14">
         <f>SUM(January:December!F21)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" s="14">
         <f>SUM(January:December!G21)</f>
@@ -16958,11 +16994,11 @@
       </c>
       <c r="F22" s="14">
         <f>SUM(January:December!F22)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G22" s="14">
         <f>SUM(January:December!G22)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" s="14">
         <f>SUM(January:December!H22)</f>
@@ -17034,7 +17070,7 @@
       </c>
       <c r="E24" s="14">
         <f>SUM(January:December!E24)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" s="14">
         <f>SUM(January:December!F24)</f>
@@ -17158,15 +17194,15 @@
       </c>
       <c r="F27" s="14">
         <f>SUM(January:December!F27)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G27" s="14">
         <f>SUM(January:December!G27)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" s="14">
         <f>SUM(January:December!H27)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I27" s="14">
         <f>SUM(January:December!I27)</f>
@@ -17274,7 +17310,7 @@
       </c>
       <c r="E30" s="14">
         <f>SUM(January:December!E30)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" s="14">
         <f>SUM(January:December!F30)</f>
@@ -17282,7 +17318,7 @@
       </c>
       <c r="G30" s="14">
         <f>SUM(January:December!G30)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H30" s="14">
         <f>SUM(January:December!H30)</f>
@@ -17294,7 +17330,7 @@
       </c>
       <c r="J30" s="14">
         <f>SUM(January:December!J30)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -17358,7 +17394,7 @@
       </c>
       <c r="F32" s="14">
         <f>SUM(January:December!F32)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G32" s="14">
         <f>SUM(January:December!G32)</f>
@@ -17366,11 +17402,11 @@
       </c>
       <c r="H32" s="14">
         <f>SUM(January:December!H32)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" s="14">
         <f>SUM(January:December!I32)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" s="14">
         <f>SUM(January:December!J32)</f>
@@ -17378,18 +17414,18 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="47" t="s">
+      <c r="A33" s="54" t="s">
         <v>143</v>
       </c>
-      <c r="B33" s="48"/>
-      <c r="C33" s="48"/>
-      <c r="D33" s="48"/>
-      <c r="E33" s="48"/>
-      <c r="F33" s="48"/>
-      <c r="G33" s="48"/>
-      <c r="H33" s="48"/>
-      <c r="I33" s="48"/>
-      <c r="J33" s="49"/>
+      <c r="B33" s="55"/>
+      <c r="C33" s="55"/>
+      <c r="D33" s="55"/>
+      <c r="E33" s="55"/>
+      <c r="F33" s="55"/>
+      <c r="G33" s="55"/>
+      <c r="H33" s="55"/>
+      <c r="I33" s="55"/>
+      <c r="J33" s="56"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
@@ -17444,7 +17480,7 @@
       </c>
       <c r="F35" s="14">
         <f>SUM(January:December!F35)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G35" s="14">
         <f>SUM(January:December!G35)</f>
@@ -17520,11 +17556,11 @@
       </c>
       <c r="E37" s="14">
         <f>SUM(January:December!E37)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37" s="14">
         <f>SUM(January:December!F37)</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G37" s="14">
         <f>SUM(January:December!G37)</f>
@@ -17564,7 +17600,7 @@
       </c>
       <c r="F38" s="14">
         <f>SUM(January:December!F38)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G38" s="14">
         <f>SUM(January:December!G38)</f>
@@ -17572,7 +17608,7 @@
       </c>
       <c r="H38" s="14">
         <f>SUM(January:December!H38)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" s="14">
         <f>SUM(January:December!I38)</f>
@@ -17684,7 +17720,7 @@
       </c>
       <c r="F41" s="14">
         <f>SUM(January:December!F41)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G41" s="14">
         <f>SUM(January:December!G41)</f>
@@ -17804,7 +17840,7 @@
       </c>
       <c r="F44" s="14">
         <f>SUM(January:December!F44)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G44" s="14">
         <f>SUM(January:December!G44)</f>
@@ -17964,11 +18000,11 @@
       </c>
       <c r="F48" s="14">
         <f>SUM(January:December!F48)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G48" s="14">
         <f>SUM(January:December!G48)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H48" s="14">
         <f>SUM(January:December!H48)</f>
@@ -17976,7 +18012,7 @@
       </c>
       <c r="I48" s="14">
         <f>SUM(January:December!I48)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" s="14">
         <f>SUM(January:December!J48)</f>
@@ -18040,19 +18076,19 @@
       </c>
       <c r="E50" s="14">
         <f>SUM(January:December!E50)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F50" s="14">
         <f>SUM(January:December!F50)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G50" s="14">
         <f>SUM(January:December!G50)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50" s="14">
         <f>SUM(January:December!H50)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I50" s="14">
         <f>SUM(January:December!I50)</f>
@@ -18084,7 +18120,7 @@
       </c>
       <c r="F51" s="14">
         <f>SUM(January:December!F51)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G51" s="14">
         <f>SUM(January:December!G51)</f>
@@ -18124,7 +18160,7 @@
       </c>
       <c r="F52" s="14">
         <f>SUM(January:December!F52)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G52" s="14">
         <f>SUM(January:December!G52)</f>
@@ -18160,11 +18196,11 @@
       </c>
       <c r="E53" s="14">
         <f>SUM(January:December!E53)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53" s="14">
         <f>SUM(January:December!F53)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G53" s="14">
         <f>SUM(January:December!G53)</f>
@@ -18176,11 +18212,11 @@
       </c>
       <c r="I53" s="14">
         <f>SUM(January:December!I53)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" s="14">
         <f>SUM(January:December!J53)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
@@ -18244,7 +18280,7 @@
       </c>
       <c r="F55" s="14">
         <f>SUM(January:December!F55)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G55" s="14">
         <f>SUM(January:December!G55)</f>
@@ -18284,7 +18320,7 @@
       </c>
       <c r="F56" s="14">
         <f>SUM(January:December!F56)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G56" s="14">
         <f>SUM(January:December!G56)</f>
@@ -18320,11 +18356,11 @@
       </c>
       <c r="E57" s="14">
         <f>SUM(January:December!E57)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F57" s="14">
         <f>SUM(January:December!F57)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G57" s="14">
         <f>SUM(January:December!G57)</f>
@@ -18332,7 +18368,7 @@
       </c>
       <c r="H57" s="14">
         <f>SUM(January:December!H57)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" s="14">
         <f>SUM(January:December!I57)</f>
@@ -18364,7 +18400,7 @@
       </c>
       <c r="F58" s="14">
         <f>SUM(January:December!F58)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G58" s="14">
         <f>SUM(January:December!G58)</f>
@@ -18404,11 +18440,11 @@
       </c>
       <c r="F59" s="14">
         <f>SUM(January:December!F59)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G59" s="14">
         <f>SUM(January:December!G59)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59" s="14">
         <f>SUM(January:December!H59)</f>
@@ -18440,23 +18476,23 @@
       </c>
       <c r="E60" s="14">
         <f>SUM(January:December!E60)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F60" s="14">
         <f>SUM(January:December!F60)</f>
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="G60" s="14">
         <f>SUM(January:December!G60)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H60" s="14">
         <f>SUM(January:December!H60)</f>
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="I60" s="14">
         <f>SUM(January:December!I60)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J60" s="14">
         <f>SUM(January:December!J60)</f>
@@ -18524,7 +18560,7 @@
       </c>
       <c r="F62" s="14">
         <f>SUM(January:December!F62)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G62" s="14">
         <f>SUM(January:December!G62)</f>
@@ -18604,7 +18640,7 @@
       </c>
       <c r="F64" s="14">
         <f>SUM(January:December!F64)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G64" s="14">
         <f>SUM(January:December!G64)</f>
@@ -18644,7 +18680,7 @@
       </c>
       <c r="F65" s="14">
         <f>SUM(January:December!F65)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G65" s="14">
         <f>SUM(January:December!G65)</f>
@@ -18664,18 +18700,18 @@
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="47" t="s">
+      <c r="A66" s="54" t="s">
         <v>143</v>
       </c>
-      <c r="B66" s="48"/>
-      <c r="C66" s="48"/>
-      <c r="D66" s="48"/>
-      <c r="E66" s="48"/>
-      <c r="F66" s="48"/>
-      <c r="G66" s="48"/>
-      <c r="H66" s="48"/>
-      <c r="I66" s="48"/>
-      <c r="J66" s="49"/>
+      <c r="B66" s="55"/>
+      <c r="C66" s="55"/>
+      <c r="D66" s="55"/>
+      <c r="E66" s="55"/>
+      <c r="F66" s="55"/>
+      <c r="G66" s="55"/>
+      <c r="H66" s="55"/>
+      <c r="I66" s="55"/>
+      <c r="J66" s="56"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="s">
@@ -18930,11 +18966,11 @@
       </c>
       <c r="F73" s="14">
         <f>SUM(January:December!F73)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G73" s="14">
         <f>SUM(January:December!G73)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H73" s="14">
         <f>SUM(January:December!H73)</f>
@@ -18966,7 +19002,7 @@
       </c>
       <c r="E74" s="14">
         <f>SUM(January:December!E74)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F74" s="14">
         <f>SUM(January:December!F74)</f>
@@ -19050,7 +19086,7 @@
       </c>
       <c r="F76" s="14">
         <f>SUM(January:December!F76)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G76" s="14">
         <f>SUM(January:December!G76)</f>
@@ -19062,7 +19098,7 @@
       </c>
       <c r="I76" s="14">
         <f>SUM(January:December!I76)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76" s="14">
         <f>SUM(January:December!J76)</f>
@@ -19130,7 +19166,7 @@
       </c>
       <c r="F78" s="14">
         <f>SUM(January:December!F78)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G78" s="14">
         <f>SUM(January:December!G78)</f>
@@ -19178,7 +19214,7 @@
       </c>
       <c r="H79" s="14">
         <f>SUM(January:December!H79)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" s="14">
         <f>SUM(January:December!I79)</f>
@@ -19214,7 +19250,7 @@
       </c>
       <c r="G80" s="14">
         <f>SUM(January:December!G80)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H80" s="14">
         <f>SUM(January:December!H80)</f>
@@ -19254,7 +19290,7 @@
       </c>
       <c r="G81" s="14">
         <f>SUM(January:December!G81)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H81" s="14">
         <f>SUM(January:December!H81)</f>
@@ -19410,7 +19446,7 @@
       </c>
       <c r="F85" s="14">
         <f>SUM(January:December!F85)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G85" s="14">
         <f>SUM(January:December!G85)</f>
@@ -19542,7 +19578,7 @@
       </c>
       <c r="I88" s="14">
         <f>SUM(January:December!I88)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" s="14">
         <f>SUM(January:December!J88)</f>
@@ -19710,8 +19746,8 @@
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" s="42"/>
-      <c r="B93" s="43"/>
+      <c r="A93" s="49"/>
+      <c r="B93" s="50"/>
       <c r="C93" s="28" t="s">
         <v>8</v>
       </c>
@@ -19743,7 +19779,7 @@
       </c>
       <c r="B94" s="30">
         <f>SUM(C94:J94)</f>
-        <v>90</v>
+        <v>239</v>
       </c>
       <c r="C94" s="27">
         <f>SUM(C8:C92)</f>
@@ -19751,31 +19787,31 @@
       </c>
       <c r="D94" s="27">
         <f t="shared" ref="D94:J94" si="1">SUM(D8:D92)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E94" s="27">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F94" s="27">
         <f t="shared" si="1"/>
-        <v>54</v>
+        <v>146</v>
       </c>
       <c r="G94" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="H94" s="27">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="I94" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="J94" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -19813,10 +19849,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="64" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="57"/>
+      <c r="B1" s="64"/>
       <c r="C1" s="28" t="s">
         <v>8</v>
       </c>
@@ -19843,10 +19879,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="63" t="s">
         <v>144</v>
       </c>
-      <c r="B2" s="56"/>
+      <c r="B2" s="63"/>
       <c r="C2" s="27">
         <f>C94</f>
         <v>0</v>
@@ -19905,32 +19941,32 @@
       <c r="J4" s="9"/>
     </row>
     <row r="5" spans="1:10" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="59" t="s">
         <v>112</v>
       </c>
-      <c r="B5" s="53"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="54" t="s">
+      <c r="A6" s="61" t="s">
         <v>142</v>
       </c>
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="55"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="62"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
@@ -20765,18 +20801,18 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="47" t="s">
+      <c r="A33" s="54" t="s">
         <v>142</v>
       </c>
-      <c r="B33" s="48"/>
-      <c r="C33" s="48"/>
-      <c r="D33" s="48"/>
-      <c r="E33" s="48"/>
-      <c r="F33" s="48"/>
-      <c r="G33" s="48"/>
-      <c r="H33" s="48"/>
-      <c r="I33" s="48"/>
-      <c r="J33" s="49"/>
+      <c r="B33" s="55"/>
+      <c r="C33" s="55"/>
+      <c r="D33" s="55"/>
+      <c r="E33" s="55"/>
+      <c r="F33" s="55"/>
+      <c r="G33" s="55"/>
+      <c r="H33" s="55"/>
+      <c r="I33" s="55"/>
+      <c r="J33" s="56"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
@@ -21803,18 +21839,18 @@
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="47" t="s">
+      <c r="A66" s="54" t="s">
         <v>142</v>
       </c>
-      <c r="B66" s="48"/>
-      <c r="C66" s="48"/>
-      <c r="D66" s="48"/>
-      <c r="E66" s="48"/>
-      <c r="F66" s="48"/>
-      <c r="G66" s="48"/>
-      <c r="H66" s="48"/>
-      <c r="I66" s="48"/>
-      <c r="J66" s="49"/>
+      <c r="B66" s="55"/>
+      <c r="C66" s="55"/>
+      <c r="D66" s="55"/>
+      <c r="E66" s="55"/>
+      <c r="F66" s="55"/>
+      <c r="G66" s="55"/>
+      <c r="H66" s="55"/>
+      <c r="I66" s="55"/>
+      <c r="J66" s="56"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="s">
@@ -22649,8 +22685,8 @@
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" s="42"/>
-      <c r="B93" s="43"/>
+      <c r="A93" s="49"/>
+      <c r="B93" s="50"/>
       <c r="C93" s="35" t="s">
         <v>8</v>
       </c>
@@ -22760,10 +22796,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="64" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="43"/>
+      <c r="B1" s="50"/>
       <c r="C1" s="28" t="s">
         <v>8</v>
       </c>
@@ -22790,10 +22826,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="57" t="s">
         <v>145</v>
       </c>
-      <c r="B2" s="51"/>
+      <c r="B2" s="58"/>
       <c r="C2" s="27">
         <f>C94</f>
         <v>0</v>
@@ -22852,32 +22888,32 @@
       <c r="J4" s="9"/>
     </row>
     <row r="5" spans="1:10" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="46"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="53"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="54" t="s">
         <v>141</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="49"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="56"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
@@ -23712,18 +23748,18 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="47" t="s">
+      <c r="A33" s="54" t="s">
         <v>141</v>
       </c>
-      <c r="B33" s="48"/>
-      <c r="C33" s="48"/>
-      <c r="D33" s="48"/>
-      <c r="E33" s="48"/>
-      <c r="F33" s="48"/>
-      <c r="G33" s="48"/>
-      <c r="H33" s="48"/>
-      <c r="I33" s="48"/>
-      <c r="J33" s="49"/>
+      <c r="B33" s="55"/>
+      <c r="C33" s="55"/>
+      <c r="D33" s="55"/>
+      <c r="E33" s="55"/>
+      <c r="F33" s="55"/>
+      <c r="G33" s="55"/>
+      <c r="H33" s="55"/>
+      <c r="I33" s="55"/>
+      <c r="J33" s="56"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
@@ -24750,18 +24786,18 @@
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="47" t="s">
+      <c r="A66" s="54" t="s">
         <v>141</v>
       </c>
-      <c r="B66" s="48"/>
-      <c r="C66" s="48"/>
-      <c r="D66" s="48"/>
-      <c r="E66" s="48"/>
-      <c r="F66" s="48"/>
-      <c r="G66" s="48"/>
-      <c r="H66" s="48"/>
-      <c r="I66" s="48"/>
-      <c r="J66" s="49"/>
+      <c r="B66" s="55"/>
+      <c r="C66" s="55"/>
+      <c r="D66" s="55"/>
+      <c r="E66" s="55"/>
+      <c r="F66" s="55"/>
+      <c r="G66" s="55"/>
+      <c r="H66" s="55"/>
+      <c r="I66" s="55"/>
+      <c r="J66" s="56"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="s">
@@ -25596,8 +25632,8 @@
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" s="42"/>
-      <c r="B93" s="43"/>
+      <c r="A93" s="49"/>
+      <c r="B93" s="50"/>
       <c r="C93" s="28" t="s">
         <v>8</v>
       </c>
@@ -25704,10 +25740,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="64" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="57"/>
+      <c r="B1" s="64"/>
       <c r="C1" s="5" t="s">
         <v>8</v>
       </c>
@@ -25734,10 +25770,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="63" t="s">
         <v>144</v>
       </c>
-      <c r="B2" s="56"/>
+      <c r="B2" s="63"/>
       <c r="C2" s="6">
         <f>C94</f>
         <v>0</v>
@@ -25796,32 +25832,32 @@
       <c r="J4" s="9"/>
     </row>
     <row r="5" spans="1:10" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="59" t="s">
         <v>112</v>
       </c>
-      <c r="B5" s="53"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="54" t="s">
+      <c r="A6" s="61" t="s">
         <v>140</v>
       </c>
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="55"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="62"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
@@ -26656,18 +26692,18 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="54" t="s">
+      <c r="A33" s="61" t="s">
         <v>140</v>
       </c>
-      <c r="B33" s="55"/>
-      <c r="C33" s="55"/>
-      <c r="D33" s="55"/>
-      <c r="E33" s="55"/>
-      <c r="F33" s="55"/>
-      <c r="G33" s="55"/>
-      <c r="H33" s="55"/>
-      <c r="I33" s="55"/>
-      <c r="J33" s="55"/>
+      <c r="B33" s="62"/>
+      <c r="C33" s="62"/>
+      <c r="D33" s="62"/>
+      <c r="E33" s="62"/>
+      <c r="F33" s="62"/>
+      <c r="G33" s="62"/>
+      <c r="H33" s="62"/>
+      <c r="I33" s="62"/>
+      <c r="J33" s="62"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
@@ -27694,18 +27730,18 @@
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="54" t="s">
+      <c r="A66" s="61" t="s">
         <v>140</v>
       </c>
-      <c r="B66" s="55"/>
-      <c r="C66" s="55"/>
-      <c r="D66" s="55"/>
-      <c r="E66" s="55"/>
-      <c r="F66" s="55"/>
-      <c r="G66" s="55"/>
-      <c r="H66" s="55"/>
-      <c r="I66" s="55"/>
-      <c r="J66" s="55"/>
+      <c r="B66" s="62"/>
+      <c r="C66" s="62"/>
+      <c r="D66" s="62"/>
+      <c r="E66" s="62"/>
+      <c r="F66" s="62"/>
+      <c r="G66" s="62"/>
+      <c r="H66" s="62"/>
+      <c r="I66" s="62"/>
+      <c r="J66" s="62"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="s">
@@ -28540,8 +28576,8 @@
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" s="57"/>
-      <c r="B93" s="57"/>
+      <c r="A93" s="64"/>
+      <c r="B93" s="64"/>
       <c r="C93" s="17" t="s">
         <v>8</v>
       </c>
@@ -28644,10 +28680,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="64" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="57"/>
+      <c r="B1" s="64"/>
       <c r="C1" s="5" t="s">
         <v>8</v>
       </c>
@@ -28674,10 +28710,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="63" t="s">
         <v>146</v>
       </c>
-      <c r="B2" s="56"/>
+      <c r="B2" s="63"/>
       <c r="C2" s="6">
         <f>C94</f>
         <v>0</v>
@@ -28736,32 +28772,32 @@
       <c r="J4" s="9"/>
     </row>
     <row r="5" spans="1:10" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="59" t="s">
         <v>112</v>
       </c>
-      <c r="B5" s="53"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="54" t="s">
+      <c r="A6" s="61" t="s">
         <v>139</v>
       </c>
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="55"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="62"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
@@ -29596,18 +29632,18 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="54" t="s">
+      <c r="A33" s="61" t="s">
         <v>139</v>
       </c>
-      <c r="B33" s="55"/>
-      <c r="C33" s="55"/>
-      <c r="D33" s="55"/>
-      <c r="E33" s="55"/>
-      <c r="F33" s="55"/>
-      <c r="G33" s="55"/>
-      <c r="H33" s="55"/>
-      <c r="I33" s="55"/>
-      <c r="J33" s="55"/>
+      <c r="B33" s="62"/>
+      <c r="C33" s="62"/>
+      <c r="D33" s="62"/>
+      <c r="E33" s="62"/>
+      <c r="F33" s="62"/>
+      <c r="G33" s="62"/>
+      <c r="H33" s="62"/>
+      <c r="I33" s="62"/>
+      <c r="J33" s="62"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
@@ -30634,18 +30670,18 @@
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="54" t="s">
+      <c r="A66" s="61" t="s">
         <v>139</v>
       </c>
-      <c r="B66" s="55"/>
-      <c r="C66" s="55"/>
-      <c r="D66" s="55"/>
-      <c r="E66" s="55"/>
-      <c r="F66" s="55"/>
-      <c r="G66" s="55"/>
-      <c r="H66" s="55"/>
-      <c r="I66" s="55"/>
-      <c r="J66" s="55"/>
+      <c r="B66" s="62"/>
+      <c r="C66" s="62"/>
+      <c r="D66" s="62"/>
+      <c r="E66" s="62"/>
+      <c r="F66" s="62"/>
+      <c r="G66" s="62"/>
+      <c r="H66" s="62"/>
+      <c r="I66" s="62"/>
+      <c r="J66" s="62"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="s">
@@ -31480,8 +31516,8 @@
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" s="57"/>
-      <c r="B93" s="57"/>
+      <c r="A93" s="64"/>
+      <c r="B93" s="64"/>
       <c r="C93" s="17" t="s">
         <v>8</v>
       </c>
@@ -31567,7 +31603,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6:J6"/>
     </sheetView>
   </sheetViews>
@@ -31583,10 +31619,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="64" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="57"/>
+      <c r="B1" s="64"/>
       <c r="C1" s="20" t="s">
         <v>8</v>
       </c>
@@ -31613,10 +31649,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="63" t="s">
         <v>147</v>
       </c>
-      <c r="B2" s="56"/>
+      <c r="B2" s="63"/>
       <c r="C2" s="19">
         <f>C94</f>
         <v>0</v>
@@ -31675,32 +31711,32 @@
       <c r="J4" s="9"/>
     </row>
     <row r="5" spans="1:10" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="B5" s="58"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="58"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="59"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="66"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="54" t="s">
         <v>138</v>
       </c>
-      <c r="B6" s="58"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="58"/>
-      <c r="I6" s="58"/>
-      <c r="J6" s="59"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="66"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
@@ -32535,18 +32571,18 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="54" t="s">
+      <c r="A33" s="61" t="s">
         <v>138</v>
       </c>
-      <c r="B33" s="55"/>
-      <c r="C33" s="55"/>
-      <c r="D33" s="55"/>
-      <c r="E33" s="55"/>
-      <c r="F33" s="55"/>
-      <c r="G33" s="55"/>
-      <c r="H33" s="55"/>
-      <c r="I33" s="55"/>
-      <c r="J33" s="55"/>
+      <c r="B33" s="62"/>
+      <c r="C33" s="62"/>
+      <c r="D33" s="62"/>
+      <c r="E33" s="62"/>
+      <c r="F33" s="62"/>
+      <c r="G33" s="62"/>
+      <c r="H33" s="62"/>
+      <c r="I33" s="62"/>
+      <c r="J33" s="62"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
@@ -33573,18 +33609,18 @@
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="54" t="s">
+      <c r="A66" s="61" t="s">
         <v>138</v>
       </c>
-      <c r="B66" s="55"/>
-      <c r="C66" s="55"/>
-      <c r="D66" s="55"/>
-      <c r="E66" s="55"/>
-      <c r="F66" s="55"/>
-      <c r="G66" s="55"/>
-      <c r="H66" s="55"/>
-      <c r="I66" s="55"/>
-      <c r="J66" s="55"/>
+      <c r="B66" s="62"/>
+      <c r="C66" s="62"/>
+      <c r="D66" s="62"/>
+      <c r="E66" s="62"/>
+      <c r="F66" s="62"/>
+      <c r="G66" s="62"/>
+      <c r="H66" s="62"/>
+      <c r="I66" s="62"/>
+      <c r="J66" s="62"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="s">
@@ -34419,8 +34455,8 @@
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" s="57"/>
-      <c r="B93" s="57"/>
+      <c r="A93" s="64"/>
+      <c r="B93" s="64"/>
       <c r="C93" s="20" t="s">
         <v>8</v>
       </c>
@@ -34507,7 +34543,7 @@
   <dimension ref="A1:J94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C71" sqref="C71:J92"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -34522,10 +34558,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="64" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="57"/>
+      <c r="B1" s="64"/>
       <c r="C1" s="32" t="s">
         <v>8</v>
       </c>
@@ -34552,10 +34588,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="56" t="s">
-        <v>130</v>
-      </c>
-      <c r="B2" s="56"/>
+      <c r="A2" s="63" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2" s="63"/>
       <c r="C2" s="31">
         <f>C94</f>
         <v>0</v>
@@ -34566,23 +34602,23 @@
       </c>
       <c r="E2" s="31">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" s="31">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G2" s="31">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" s="31">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I2" s="31">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" s="31">
         <f t="shared" si="0"/>
@@ -34614,32 +34650,32 @@
       <c r="J4" s="9"/>
     </row>
     <row r="5" spans="1:10" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="B5" s="58"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="58"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="59"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="66"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="54" t="s">
         <v>137</v>
       </c>
-      <c r="B6" s="58"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="58"/>
-      <c r="I6" s="58"/>
-      <c r="J6" s="59"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="66"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
@@ -34785,8 +34821,8 @@
       <c r="E11" s="14">
         <v>0</v>
       </c>
-      <c r="F11" s="15">
-        <v>0</v>
+      <c r="F11" s="40">
+        <v>1</v>
       </c>
       <c r="G11" s="15">
         <v>0</v>
@@ -35198,8 +35234,8 @@
       <c r="D24" s="14">
         <v>0</v>
       </c>
-      <c r="E24" s="14">
-        <v>0</v>
+      <c r="E24" s="40">
+        <v>1</v>
       </c>
       <c r="F24" s="15">
         <v>0</v>
@@ -35297,14 +35333,14 @@
       <c r="E27" s="14">
         <v>0</v>
       </c>
-      <c r="F27" s="15">
-        <v>0</v>
+      <c r="F27" s="40">
+        <v>1</v>
       </c>
       <c r="G27" s="15">
         <v>0</v>
       </c>
-      <c r="H27" s="15">
-        <v>0</v>
+      <c r="H27" s="40">
+        <v>1</v>
       </c>
       <c r="I27" s="14">
         <v>0</v>
@@ -35474,18 +35510,18 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="54" t="s">
+      <c r="A33" s="61" t="s">
         <v>137</v>
       </c>
-      <c r="B33" s="55"/>
-      <c r="C33" s="55"/>
-      <c r="D33" s="55"/>
-      <c r="E33" s="55"/>
-      <c r="F33" s="55"/>
-      <c r="G33" s="55"/>
-      <c r="H33" s="55"/>
-      <c r="I33" s="55"/>
-      <c r="J33" s="55"/>
+      <c r="B33" s="62"/>
+      <c r="C33" s="62"/>
+      <c r="D33" s="62"/>
+      <c r="E33" s="62"/>
+      <c r="F33" s="62"/>
+      <c r="G33" s="62"/>
+      <c r="H33" s="62"/>
+      <c r="I33" s="62"/>
+      <c r="J33" s="62"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
@@ -35535,8 +35571,8 @@
       <c r="E35" s="14">
         <v>0</v>
       </c>
-      <c r="F35" s="14">
-        <v>0</v>
+      <c r="F35" s="40">
+        <v>1</v>
       </c>
       <c r="G35" s="14">
         <v>0</v>
@@ -35599,8 +35635,8 @@
       <c r="E37" s="14">
         <v>0</v>
       </c>
-      <c r="F37" s="14">
-        <v>0</v>
+      <c r="F37" s="40">
+        <v>1</v>
       </c>
       <c r="G37" s="14">
         <v>0</v>
@@ -35727,8 +35763,8 @@
       <c r="E41" s="14">
         <v>0</v>
       </c>
-      <c r="F41" s="14">
-        <v>0</v>
+      <c r="F41" s="40">
+        <v>1</v>
       </c>
       <c r="G41" s="14">
         <v>0</v>
@@ -35951,8 +35987,8 @@
       <c r="E48" s="14">
         <v>0</v>
       </c>
-      <c r="F48" s="14">
-        <v>0</v>
+      <c r="F48" s="40">
+        <v>1</v>
       </c>
       <c r="G48" s="14">
         <v>0</v>
@@ -36335,17 +36371,17 @@
       <c r="E60" s="14">
         <v>0</v>
       </c>
-      <c r="F60" s="14">
-        <v>0</v>
+      <c r="F60" s="40">
+        <v>4</v>
       </c>
       <c r="G60" s="14">
         <v>0</v>
       </c>
-      <c r="H60" s="14">
-        <v>0</v>
-      </c>
-      <c r="I60" s="14">
-        <v>0</v>
+      <c r="H60" s="40">
+        <v>2</v>
+      </c>
+      <c r="I60" s="40">
+        <v>1</v>
       </c>
       <c r="J60" s="14">
         <v>0</v>
@@ -36399,8 +36435,8 @@
       <c r="E62" s="14">
         <v>0</v>
       </c>
-      <c r="F62" s="14">
-        <v>0</v>
+      <c r="F62" s="40">
+        <v>1</v>
       </c>
       <c r="G62" s="14">
         <v>0</v>
@@ -36512,18 +36548,18 @@
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="54" t="s">
+      <c r="A66" s="61" t="s">
         <v>137</v>
       </c>
-      <c r="B66" s="55"/>
-      <c r="C66" s="55"/>
-      <c r="D66" s="55"/>
-      <c r="E66" s="55"/>
-      <c r="F66" s="55"/>
-      <c r="G66" s="55"/>
-      <c r="H66" s="55"/>
-      <c r="I66" s="55"/>
-      <c r="J66" s="55"/>
+      <c r="B66" s="62"/>
+      <c r="C66" s="62"/>
+      <c r="D66" s="62"/>
+      <c r="E66" s="62"/>
+      <c r="F66" s="62"/>
+      <c r="G66" s="62"/>
+      <c r="H66" s="62"/>
+      <c r="I66" s="62"/>
+      <c r="J66" s="62"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="s">
@@ -36736,8 +36772,8 @@
       <c r="F73" s="14">
         <v>0</v>
       </c>
-      <c r="G73" s="14">
-        <v>0</v>
+      <c r="G73" s="40">
+        <v>1</v>
       </c>
       <c r="H73" s="14">
         <v>0</v>
@@ -36893,8 +36929,8 @@
       <c r="E78" s="14">
         <v>0</v>
       </c>
-      <c r="F78" s="14">
-        <v>0</v>
+      <c r="F78" s="40">
+        <v>1</v>
       </c>
       <c r="G78" s="14">
         <v>0</v>
@@ -37358,8 +37394,8 @@
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" s="57"/>
-      <c r="B93" s="57"/>
+      <c r="A93" s="64"/>
+      <c r="B93" s="64"/>
       <c r="C93" s="32" t="s">
         <v>8</v>
       </c>
@@ -37391,7 +37427,7 @@
       </c>
       <c r="B94" s="30">
         <f>SUM(C94:J94)</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C94" s="31">
         <f>SUM(C8:C92)</f>
@@ -37403,23 +37439,23 @@
       </c>
       <c r="E94" s="31">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F94" s="31">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G94" s="31">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H94" s="31">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I94" s="31">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94" s="31">
         <f t="shared" si="1"/>
@@ -37446,7 +37482,7 @@
   <dimension ref="A1:J94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:J27"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -37461,10 +37497,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="64" t="s">
         <v>121</v>
       </c>
-      <c r="B1" s="57"/>
+      <c r="B1" s="64"/>
       <c r="C1" s="32" t="s">
         <v>8</v>
       </c>
@@ -37491,10 +37527,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="56" t="s">
-        <v>130</v>
-      </c>
-      <c r="B2" s="56"/>
+      <c r="A2" s="63" t="s">
+        <v>148</v>
+      </c>
+      <c r="B2" s="63"/>
       <c r="C2" s="31">
         <f>C94</f>
         <v>0</v>
@@ -37509,15 +37545,15 @@
       </c>
       <c r="F2" s="31">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G2" s="31">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" s="31">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I2" s="31">
         <f t="shared" si="0"/>
@@ -37553,32 +37589,32 @@
       <c r="J4" s="9"/>
     </row>
     <row r="5" spans="1:10" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="B5" s="58"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="58"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="59"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="66"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="54" t="s">
         <v>136</v>
       </c>
-      <c r="B6" s="58"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="58"/>
-      <c r="I6" s="58"/>
-      <c r="J6" s="59"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="66"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
@@ -37826,8 +37862,8 @@
       <c r="G14" s="15">
         <v>0</v>
       </c>
-      <c r="H14" s="15">
-        <v>0</v>
+      <c r="H14" s="41">
+        <v>1</v>
       </c>
       <c r="I14" s="14">
         <v>0</v>
@@ -38413,18 +38449,18 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="54" t="s">
+      <c r="A33" s="61" t="s">
         <v>136</v>
       </c>
-      <c r="B33" s="55"/>
-      <c r="C33" s="55"/>
-      <c r="D33" s="55"/>
-      <c r="E33" s="55"/>
-      <c r="F33" s="55"/>
-      <c r="G33" s="55"/>
-      <c r="H33" s="55"/>
-      <c r="I33" s="55"/>
-      <c r="J33" s="55"/>
+      <c r="B33" s="62"/>
+      <c r="C33" s="62"/>
+      <c r="D33" s="62"/>
+      <c r="E33" s="62"/>
+      <c r="F33" s="62"/>
+      <c r="G33" s="62"/>
+      <c r="H33" s="62"/>
+      <c r="I33" s="62"/>
+      <c r="J33" s="62"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
@@ -38576,8 +38612,8 @@
       <c r="G38" s="14">
         <v>0</v>
       </c>
-      <c r="H38" s="14">
-        <v>0</v>
+      <c r="H38" s="41">
+        <v>1</v>
       </c>
       <c r="I38" s="14">
         <v>0</v>
@@ -38666,8 +38702,8 @@
       <c r="E41" s="14">
         <v>0</v>
       </c>
-      <c r="F41" s="14">
-        <v>0</v>
+      <c r="F41" s="41">
+        <v>1</v>
       </c>
       <c r="G41" s="14">
         <v>0</v>
@@ -38960,8 +38996,8 @@
       <c r="G50" s="14">
         <v>0</v>
       </c>
-      <c r="H50" s="14">
-        <v>0</v>
+      <c r="H50" s="41">
+        <v>1</v>
       </c>
       <c r="I50" s="14">
         <v>0</v>
@@ -39050,8 +39086,8 @@
       <c r="E53" s="14">
         <v>0</v>
       </c>
-      <c r="F53" s="14">
-        <v>0</v>
+      <c r="F53" s="41">
+        <v>2</v>
       </c>
       <c r="G53" s="14">
         <v>0</v>
@@ -39274,14 +39310,14 @@
       <c r="E60" s="14">
         <v>0</v>
       </c>
-      <c r="F60" s="14">
-        <v>0</v>
-      </c>
-      <c r="G60" s="14">
-        <v>0</v>
-      </c>
-      <c r="H60" s="14">
-        <v>0</v>
+      <c r="F60" s="41">
+        <v>4</v>
+      </c>
+      <c r="G60" s="41">
+        <v>1</v>
+      </c>
+      <c r="H60" s="41">
+        <v>1</v>
       </c>
       <c r="I60" s="14">
         <v>0</v>
@@ -39451,18 +39487,18 @@
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="54" t="s">
+      <c r="A66" s="61" t="s">
         <v>136</v>
       </c>
-      <c r="B66" s="55"/>
-      <c r="C66" s="55"/>
-      <c r="D66" s="55"/>
-      <c r="E66" s="55"/>
-      <c r="F66" s="55"/>
-      <c r="G66" s="55"/>
-      <c r="H66" s="55"/>
-      <c r="I66" s="55"/>
-      <c r="J66" s="55"/>
+      <c r="B66" s="62"/>
+      <c r="C66" s="62"/>
+      <c r="D66" s="62"/>
+      <c r="E66" s="62"/>
+      <c r="F66" s="62"/>
+      <c r="G66" s="62"/>
+      <c r="H66" s="62"/>
+      <c r="I66" s="62"/>
+      <c r="J66" s="62"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="s">
@@ -39768,8 +39804,8 @@
       <c r="E76" s="14">
         <v>0</v>
       </c>
-      <c r="F76" s="14">
-        <v>0</v>
+      <c r="F76" s="41">
+        <v>1</v>
       </c>
       <c r="G76" s="14">
         <v>0</v>
@@ -39870,8 +39906,8 @@
       <c r="G79" s="14">
         <v>0</v>
       </c>
-      <c r="H79" s="14">
-        <v>0</v>
+      <c r="H79" s="41">
+        <v>1</v>
       </c>
       <c r="I79" s="14">
         <v>0</v>
@@ -40297,8 +40333,8 @@
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" s="57"/>
-      <c r="B93" s="57"/>
+      <c r="A93" s="64"/>
+      <c r="B93" s="64"/>
       <c r="C93" s="32" t="s">
         <v>8</v>
       </c>
@@ -40330,7 +40366,7 @@
       </c>
       <c r="B94" s="30">
         <f>SUM(C94:J94)</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C94" s="31">
         <f>SUM(C8:C92)</f>
@@ -40346,15 +40382,15 @@
       </c>
       <c r="F94" s="31">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G94" s="31">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H94" s="31">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I94" s="31">
         <f t="shared" si="1"/>
